--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>7月11日(周六)晚打球报名人员</t>
   </si>
@@ -58,40 +58,37 @@
     <t>篮球场老大爷</t>
   </si>
   <si>
-    <t>Troy邵祥毅1</t>
-  </si>
-  <si>
-    <t>Troy邵祥毅2</t>
-  </si>
-  <si>
-    <t>Troy邵祥毅3</t>
+    <t>Antares</t>
+  </si>
+  <si>
+    <t>陈睿</t>
   </si>
   <si>
     <t>朱枭鹏</t>
   </si>
   <si>
+    <t>12(已收费)</t>
+  </si>
+  <si>
+    <t>枇杷</t>
+  </si>
+  <si>
     <t>补位1</t>
   </si>
   <si>
-    <t>陈睿</t>
+    <t>Cocobolo</t>
   </si>
   <si>
     <t>补位2</t>
   </si>
   <si>
-    <t>枇杷</t>
+    <t>徐坤按门铃</t>
   </si>
   <si>
     <t>补位3</t>
   </si>
   <si>
-    <t>Cocobolo</t>
-  </si>
-  <si>
     <t>补位4</t>
-  </si>
-  <si>
-    <t>徐坤按门铃</t>
   </si>
   <si>
     <t>补位5</t>
@@ -126,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -148,6 +145,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,35 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,9 +187,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,17 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,21 +285,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,19 +309,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,163 +477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,15 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -548,23 +536,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,7 +546,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +591,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,145 +623,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,7 +1103,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1220,96 +1217,92 @@
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
-        <v>12</v>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>7月11日(周六)晚打球报名人员</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>补位3</t>
+  </si>
+  <si>
+    <t>暴躁的阿呆</t>
   </si>
   <si>
     <t>补位4</t>
@@ -125,8 +128,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,26 +148,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -196,7 +193,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,7 +209,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,25 +240,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,23 +263,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,15 +539,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -562,16 +556,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -592,17 +586,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +603,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1246,63 +1249,65 @@
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>7月11日(周六)晚打球报名人员</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Antares</t>
+  </si>
+  <si>
+    <t>10(已收费)</t>
   </si>
   <si>
     <t>陈睿</t>
@@ -126,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -149,21 +152,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,17 +179,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +240,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -217,15 +256,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +270,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -247,37 +279,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,7 +288,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +315,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,175 +453,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +524,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -536,22 +557,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,50 +611,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,16 +641,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,115 +659,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,7 +1109,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1204,13 +1207,13 @@
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
-        <v>10</v>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -1218,96 +1221,96 @@
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>7月11日(周六)晚打球报名人员</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>陈睿</t>
+  </si>
+  <si>
+    <t>11(已收费)</t>
   </si>
   <si>
     <t>朱枭鹏</t>
@@ -129,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -147,6 +150,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,76 +183,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,6 +213,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -272,15 +261,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,15 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -553,21 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +575,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -613,6 +607,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -629,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1112,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1215,102 +1218,102 @@
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
-        <v>11</v>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>7月11日(周六)晚打球报名人员</t>
   </si>
@@ -37,7 +37,7 @@
     <t>2(已收费)</t>
   </si>
   <si>
-    <t>阿正</t>
+    <t>枇杷</t>
   </si>
   <si>
     <t>叶骏</t>
@@ -46,7 +46,13 @@
     <t>hero</t>
   </si>
   <si>
-    <t>Cheng</t>
+    <t>5(已收费)</t>
+  </si>
+  <si>
+    <t>徐坤按门铃</t>
+  </si>
+  <si>
+    <t>6(已收费)</t>
   </si>
   <si>
     <t>王浩</t>
@@ -76,25 +82,16 @@
     <t>12(已收费)</t>
   </si>
   <si>
-    <t>枇杷</t>
+    <t>暴躁的阿呆</t>
   </si>
   <si>
     <t>补位1</t>
   </si>
   <si>
-    <t>Cocobolo</t>
-  </si>
-  <si>
     <t>补位2</t>
   </si>
   <si>
-    <t>徐坤按门铃</t>
-  </si>
-  <si>
     <t>补位3</t>
-  </si>
-  <si>
-    <t>暴躁的阿呆</t>
   </si>
   <si>
     <t>补位4</t>
@@ -132,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -154,14 +151,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,8 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,9 +264,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,21 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -228,70 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,187 +315,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,26 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,7 +543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,32 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +597,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,7 +1109,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1170,21 +1167,21 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -1200,7 +1197,7 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1208,112 +1205,106 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>7月11日(周六)晚打球报名人员</t>
+    <t>7月18日(周六)晚打球报名人员</t>
   </si>
   <si>
     <t>姓名</t>
@@ -25,76 +25,76 @@
     <t>序号</t>
   </si>
   <si>
+    <t>徐坤按门铃</t>
+  </si>
+  <si>
+    <t>1(已收费)</t>
+  </si>
+  <si>
     <t>素白</t>
   </si>
   <si>
-    <t>1(已收费)</t>
+    <t>2(已收费)</t>
   </si>
   <si>
     <t>小胖</t>
   </si>
   <si>
-    <t>2(已收费)</t>
-  </si>
-  <si>
-    <t>枇杷</t>
+    <t>3(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>阿正</t>
   </si>
   <si>
     <t>叶骏</t>
   </si>
   <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>5(已收费)</t>
-  </si>
-  <si>
-    <t>徐坤按门铃</t>
-  </si>
-  <si>
-    <t>6(已收费)</t>
+    <t>hero(1)</t>
+  </si>
+  <si>
+    <t>陈睿</t>
+  </si>
+  <si>
+    <t>篮球场老大爷(1)</t>
+  </si>
+  <si>
+    <t>篮球场老大爷(2)</t>
+  </si>
+  <si>
+    <t>hero(2)</t>
+  </si>
+  <si>
+    <t>朱枭鹏</t>
+  </si>
+  <si>
+    <t>补位1</t>
+  </si>
+  <si>
+    <t>Yb_3</t>
+  </si>
+  <si>
+    <t>补位2</t>
   </si>
   <si>
     <t>王浩</t>
   </si>
   <si>
-    <t>官方提醒您…注意</t>
-  </si>
-  <si>
-    <t>篮球场老大爷</t>
-  </si>
-  <si>
-    <t>Antares</t>
-  </si>
-  <si>
-    <t>10(已收费)</t>
-  </si>
-  <si>
-    <t>陈睿</t>
-  </si>
-  <si>
-    <t>11(已收费)</t>
-  </si>
-  <si>
-    <t>朱枭鹏</t>
-  </si>
-  <si>
-    <t>12(已收费)</t>
-  </si>
-  <si>
-    <t>暴躁的阿呆</t>
-  </si>
-  <si>
-    <t>补位1</t>
-  </si>
-  <si>
-    <t>补位2</t>
-  </si>
-  <si>
     <t>补位3</t>
   </si>
   <si>
+    <t>Cocobolo</t>
+  </si>
+  <si>
     <t>补位4</t>
+  </si>
+  <si>
+    <t>官方提想您…注意</t>
   </si>
   <si>
     <t>补位5</t>
@@ -129,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -151,6 +151,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,13 +172,81 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -172,8 +254,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,100 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,61 +315,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,25 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,91 +483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,21 +538,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,8 +560,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,15 +603,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1151,13 +1151,13 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>3</v>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -1165,23 +1165,23 @@
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
+      <c r="B8" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1205,56 +1205,64 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="19" customHeight="1" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="19" customHeight="1" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="19" customHeight="1" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+    <row r="18" ht="19" customHeight="1" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+    <row r="19" ht="19" customHeight="1" spans="1:2">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" ht="19" customHeight="1" spans="1:2">
-      <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>7月18日(周六)晚打球报名人员</t>
   </si>
@@ -46,6 +46,9 @@
     <t>蔡泽赟</t>
   </si>
   <si>
+    <t>4(已收费)</t>
+  </si>
+  <si>
     <t>Cheng</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>补位5</t>
+  </si>
+  <si>
+    <t>PluTo</t>
   </si>
   <si>
     <t>补位6</t>
@@ -129,9 +135,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -151,28 +157,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +201,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +255,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,23 +286,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,22 +299,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -315,79 +321,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,103 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,11 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +554,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +602,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -595,32 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -629,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1115,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1159,13 +1165,13 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>4</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -1173,7 +1179,7 @@
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -1181,7 +1187,7 @@
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -1189,7 +1195,7 @@
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -1197,7 +1203,7 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1205,7 +1211,7 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -1213,7 +1219,7 @@
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -1221,7 +1227,7 @@
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -1229,90 +1235,92 @@
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>7月18日(周六)晚打球报名人员</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>补位6</t>
+  </si>
+  <si>
+    <t>暴躁的阿呆</t>
   </si>
   <si>
     <t>补位7</t>
@@ -137,8 +140,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -163,16 +166,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,31 +198,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,50 +258,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -321,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,17 +533,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +583,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -588,42 +617,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,7 +1118,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1282,45 +1285,47 @@
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>7月18日(周六)晚打球报名人员</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>补位7</t>
+  </si>
+  <si>
+    <t>SkyQ</t>
   </si>
   <si>
     <t>补位8</t>
@@ -160,23 +163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,8 +184,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +194,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,18 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,38 +255,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,19 +327,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,163 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,50 +538,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,11 +560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +598,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,7 +1121,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1293,39 +1296,41 @@
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>7月18日(周六)晚打球报名人员</t>
   </si>
@@ -52,16 +52,28 @@
     <t>Cheng</t>
   </si>
   <si>
+    <t>5(已收费)</t>
+  </si>
+  <si>
     <t>阿正</t>
   </si>
   <si>
+    <t>6(已收费)</t>
+  </si>
+  <si>
     <t>叶骏</t>
   </si>
   <si>
+    <t>7(已收费)</t>
+  </si>
+  <si>
     <t>hero(1)</t>
   </si>
   <si>
     <t>陈睿</t>
+  </si>
+  <si>
+    <t>9(已收费)</t>
   </si>
   <si>
     <t>篮球场老大爷(1)</t>
@@ -141,8 +153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -163,7 +175,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +203,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -192,24 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,8 +272,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -232,37 +296,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,30 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,13 +339,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,19 +429,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,127 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,6 +557,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -556,30 +586,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +616,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -624,15 +645,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1133,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1179,29 +1191,29 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -1209,15 +1221,15 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -1225,7 +1237,7 @@
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -1233,7 +1245,7 @@
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -1241,96 +1253,96 @@
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -49,7 +49,7 @@
     <t>4(已收费)</t>
   </si>
   <si>
-    <t>Cheng</t>
+    <t>朱枭鹏</t>
   </si>
   <si>
     <t>5(已收费)</t>
@@ -85,49 +85,49 @@
     <t>hero(2)</t>
   </si>
   <si>
-    <t>朱枭鹏</t>
+    <t>Yb_3</t>
   </si>
   <si>
     <t>补位1</t>
   </si>
   <si>
-    <t>Yb_3</t>
+    <t>王浩</t>
   </si>
   <si>
     <t>补位2</t>
   </si>
   <si>
-    <t>王浩</t>
+    <t>Cocobolo</t>
   </si>
   <si>
     <t>补位3</t>
   </si>
   <si>
-    <t>Cocobolo</t>
+    <t>官方提想您…注意</t>
   </si>
   <si>
     <t>补位4</t>
   </si>
   <si>
-    <t>官方提想您…注意</t>
+    <t>PluTo</t>
   </si>
   <si>
     <t>补位5</t>
   </si>
   <si>
-    <t>PluTo</t>
+    <t>暴躁的阿呆</t>
   </si>
   <si>
     <t>补位6</t>
   </si>
   <si>
-    <t>暴躁的阿呆</t>
+    <t>SkyQ</t>
   </si>
   <si>
     <t>补位7</t>
   </si>
   <si>
-    <t>SkyQ</t>
+    <t>黄镭</t>
   </si>
   <si>
     <t>补位8</t>
@@ -153,8 +153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -174,15 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,9 +198,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,7 +237,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,15 +296,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,30 +306,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,20 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,7 +567,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +583,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,11 +613,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,17 +635,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,16 +665,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,115 +683,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A15" sqref="A15:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1315,8 +1315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" ht="19" customHeight="1" spans="1:2">
-      <c r="A23" s="4"/>
+    <row r="23" ht="19" customHeight="1" spans="2:2">
       <c r="B23" s="4" t="s">
         <v>39</v>
       </c>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>7月18日(周六)晚打球报名人员</t>
   </si>
@@ -70,6 +70,9 @@
     <t>hero(1)</t>
   </si>
   <si>
+    <t>8(已收费)</t>
+  </si>
+  <si>
     <t>陈睿</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>hero(2)</t>
+  </si>
+  <si>
+    <t>12(已收费)</t>
   </si>
   <si>
     <t>Yb_3</t>
@@ -174,9 +180,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +218,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,6 +246,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -236,27 +285,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -266,53 +311,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,187 +345,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,17 +554,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,30 +570,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,11 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,11 +621,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,19 +671,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,112 +692,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1139,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1215,21 +1221,21 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
-        <v>8</v>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -1237,7 +1243,7 @@
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -1245,103 +1251,103 @@
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>7月18日(周六)晚打球报名人员</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>7月25日(周六)晚打球报名人员</t>
   </si>
   <si>
     <t>姓名</t>
@@ -28,9 +28,6 @@
     <t>徐坤按门铃</t>
   </si>
   <si>
-    <t>1(已收费)</t>
-  </si>
-  <si>
     <t>素白</t>
   </si>
   <si>
@@ -43,97 +40,58 @@
     <t>3(已收费)</t>
   </si>
   <si>
+    <t>官方提想您…注意</t>
+  </si>
+  <si>
+    <t>陈睿</t>
+  </si>
+  <si>
+    <t>hero(1)</t>
+  </si>
+  <si>
+    <t>hero(2)</t>
+  </si>
+  <si>
+    <t>hero(3)</t>
+  </si>
+  <si>
+    <t>hero(4)</t>
+  </si>
+  <si>
     <t>蔡泽赟</t>
   </si>
   <si>
-    <t>4(已收费)</t>
+    <t>SkyQ</t>
+  </si>
+  <si>
+    <t>朱展欣</t>
   </si>
   <si>
     <t>朱枭鹏</t>
   </si>
   <si>
-    <t>5(已收费)</t>
+    <t>补位1</t>
   </si>
   <si>
     <t>阿正</t>
   </si>
   <si>
-    <t>6(已收费)</t>
-  </si>
-  <si>
-    <t>叶骏</t>
-  </si>
-  <si>
-    <t>7(已收费)</t>
-  </si>
-  <si>
-    <t>hero(1)</t>
-  </si>
-  <si>
-    <t>8(已收费)</t>
-  </si>
-  <si>
-    <t>陈睿</t>
-  </si>
-  <si>
-    <t>9(已收费)</t>
-  </si>
-  <si>
-    <t>篮球场老大爷(1)</t>
-  </si>
-  <si>
-    <t>篮球场老大爷(2)</t>
-  </si>
-  <si>
-    <t>hero(2)</t>
-  </si>
-  <si>
-    <t>12(已收费)</t>
-  </si>
-  <si>
-    <t>Yb_3</t>
-  </si>
-  <si>
-    <t>补位1</t>
-  </si>
-  <si>
-    <t>王浩</t>
-  </si>
-  <si>
     <t>补位2</t>
   </si>
   <si>
-    <t>Cocobolo</t>
-  </si>
-  <si>
     <t>补位3</t>
   </si>
   <si>
-    <t>官方提想您…注意</t>
-  </si>
-  <si>
     <t>补位4</t>
   </si>
   <si>
-    <t>PluTo</t>
-  </si>
-  <si>
     <t>补位5</t>
   </si>
   <si>
-    <t>暴躁的阿呆</t>
-  </si>
-  <si>
     <t>补位6</t>
   </si>
   <si>
-    <t>SkyQ</t>
-  </si>
-  <si>
     <t>补位7</t>
-  </si>
-  <si>
-    <t>黄镭</t>
   </si>
   <si>
     <t>补位8</t>
@@ -159,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -188,6 +146,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,7 +190,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,22 +242,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,84 +281,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -345,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,20 +514,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,17 +536,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,7 +564,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,9 +586,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,7 +1097,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1165,77 +1123,77 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -1243,7 +1201,7 @@
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -1251,103 +1209,91 @@
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>7月25日(周六)晚打球报名人员</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>补位2</t>
+  </si>
+  <si>
+    <t>Cocobolo</t>
   </si>
   <si>
     <t>补位3</t>
@@ -118,8 +121,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -139,6 +142,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -146,14 +163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,23 +176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,16 +208,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,33 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +253,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -303,37 +306,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,145 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +524,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -540,56 +578,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -609,6 +597,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -617,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,7 +1100,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1232,68 +1235,70 @@
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>7月25日(周六)晚打球报名人员</t>
   </si>
@@ -28,6 +28,9 @@
     <t>徐坤按门铃</t>
   </si>
   <si>
+    <t>1(已收费)</t>
+  </si>
+  <si>
     <t>素白</t>
   </si>
   <si>
@@ -58,7 +61,10 @@
     <t>hero(4)</t>
   </si>
   <si>
-    <t>蔡泽赟</t>
+    <t>蔡泽赟(1)</t>
+  </si>
+  <si>
+    <t>10(已收费)</t>
   </si>
   <si>
     <t>SkyQ</t>
@@ -67,6 +73,9 @@
     <t>朱展欣</t>
   </si>
   <si>
+    <t>12(已收费)</t>
+  </si>
+  <si>
     <t>朱枭鹏</t>
   </si>
   <si>
@@ -85,7 +94,13 @@
     <t>补位3</t>
   </si>
   <si>
+    <t>暴躁的阿呆</t>
+  </si>
+  <si>
     <t>补位4</t>
+  </si>
+  <si>
+    <t>蔡泽赟(2)</t>
   </si>
   <si>
     <t>补位5</t>
@@ -120,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -141,20 +156,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -162,23 +164,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,39 +211,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,9 +240,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,17 +285,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,25 +321,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,157 +471,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,19 +532,34 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -540,6 +570,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,56 +619,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1115,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1126,29 +1141,29 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -1156,7 +1171,7 @@
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -1164,7 +1179,7 @@
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -1172,7 +1187,7 @@
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -1180,7 +1195,7 @@
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -1188,7 +1203,7 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1196,15 +1211,15 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -1212,93 +1227,97 @@
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>7月25日(周六)晚打球报名人员</t>
   </si>
@@ -46,7 +46,10 @@
     <t>官方提想您…注意</t>
   </si>
   <si>
-    <t>陈睿</t>
+    <t>朱枭鹏</t>
+  </si>
+  <si>
+    <t>5(已收费)</t>
   </si>
   <si>
     <t>hero(1)</t>
@@ -70,37 +73,37 @@
     <t>SkyQ</t>
   </si>
   <si>
+    <t>11(已收费)</t>
+  </si>
+  <si>
     <t>朱展欣</t>
   </si>
   <si>
     <t>12(已收费)</t>
   </si>
   <si>
-    <t>朱枭鹏</t>
+    <t>阿正</t>
   </si>
   <si>
     <t>补位1</t>
   </si>
   <si>
-    <t>阿正</t>
+    <t>Cocobolo</t>
   </si>
   <si>
     <t>补位2</t>
   </si>
   <si>
-    <t>Cocobolo</t>
+    <t>暴躁的阿呆</t>
   </si>
   <si>
     <t>补位3</t>
   </si>
   <si>
-    <t>暴躁的阿呆</t>
+    <t>蔡泽赟(2)</t>
   </si>
   <si>
     <t>补位4</t>
-  </si>
-  <si>
-    <t>蔡泽赟(2)</t>
   </si>
   <si>
     <t>补位5</t>
@@ -135,8 +138,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -156,9 +159,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,7 +183,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +204,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -211,90 +272,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,12 +324,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,31 +384,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,90 +480,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,37 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,12 +533,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -559,32 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,26 +611,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,10 +862,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1115,7 +1118,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1173,13 +1176,13 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1211,113 +1214,110 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" ht="19" customHeight="1" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="19" customHeight="1" spans="2:2">
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>7月25日(周六)晚打球报名人员</t>
   </si>
@@ -25,7 +25,7 @@
     <t>序号</t>
   </si>
   <si>
-    <t>徐坤按门铃</t>
+    <t>阿正</t>
   </si>
   <si>
     <t>1(已收费)</t>
@@ -55,15 +55,27 @@
     <t>hero(1)</t>
   </si>
   <si>
+    <t>6(已收费)</t>
+  </si>
+  <si>
     <t>hero(2)</t>
   </si>
   <si>
+    <t>7(已收费)</t>
+  </si>
+  <si>
     <t>hero(3)</t>
   </si>
   <si>
+    <t>8(已收费)</t>
+  </si>
+  <si>
     <t>hero(4)</t>
   </si>
   <si>
+    <t>9(已收费)</t>
+  </si>
+  <si>
     <t>蔡泽赟(1)</t>
   </si>
   <si>
@@ -82,25 +94,22 @@
     <t>12(已收费)</t>
   </si>
   <si>
-    <t>阿正</t>
+    <t>Cocobolo</t>
   </si>
   <si>
     <t>补位1</t>
   </si>
   <si>
-    <t>Cocobolo</t>
+    <t>暴躁的阿呆</t>
   </si>
   <si>
     <t>补位2</t>
   </si>
   <si>
-    <t>暴躁的阿呆</t>
+    <t>蔡泽赟(2)</t>
   </si>
   <si>
     <t>补位3</t>
-  </si>
-  <si>
-    <t>蔡泽赟(2)</t>
   </si>
   <si>
     <t>补位4</t>
@@ -138,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -160,14 +169,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,9 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,15 +281,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,7 +298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,68 +311,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -324,19 +333,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,163 +471,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +542,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -544,6 +582,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,15 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,15 +621,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,26 +639,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -862,10 +871,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1118,7 +1127,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1184,140 +1193,138 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
-        <v>6</v>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="2:2">
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>7月25日(周六)晚打球报名人员</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>8月1日(周六)晚打球报名人员</t>
   </si>
   <si>
     <t>姓名</t>
@@ -25,88 +25,49 @@
     <t>序号</t>
   </si>
   <si>
+    <t>素白</t>
+  </si>
+  <si>
+    <t>1(已收费)</t>
+  </si>
+  <si>
+    <t>小胖</t>
+  </si>
+  <si>
+    <t>2(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟</t>
+  </si>
+  <si>
+    <t>金理</t>
+  </si>
+  <si>
     <t>阿正</t>
   </si>
   <si>
-    <t>1(已收费)</t>
-  </si>
-  <si>
-    <t>素白</t>
-  </si>
-  <si>
-    <t>2(已收费)</t>
-  </si>
-  <si>
-    <t>小胖</t>
-  </si>
-  <si>
-    <t>3(已收费)</t>
-  </si>
-  <si>
-    <t>官方提想您…注意</t>
-  </si>
-  <si>
-    <t>朱枭鹏</t>
-  </si>
-  <si>
-    <t>5(已收费)</t>
-  </si>
-  <si>
-    <t>hero(1)</t>
-  </si>
-  <si>
-    <t>6(已收费)</t>
-  </si>
-  <si>
-    <t>hero(2)</t>
-  </si>
-  <si>
-    <t>7(已收费)</t>
-  </si>
-  <si>
-    <t>hero(3)</t>
-  </si>
-  <si>
-    <t>8(已收费)</t>
-  </si>
-  <si>
-    <t>hero(4)</t>
-  </si>
-  <si>
-    <t>9(已收费)</t>
-  </si>
-  <si>
-    <t>蔡泽赟(1)</t>
-  </si>
-  <si>
-    <t>10(已收费)</t>
-  </si>
-  <si>
-    <t>SkyQ</t>
-  </si>
-  <si>
-    <t>11(已收费)</t>
+    <t>Cocobolo(1)</t>
+  </si>
+  <si>
+    <t>黄镭</t>
+  </si>
+  <si>
+    <t>暴躁的阿呆</t>
   </si>
   <si>
     <t>朱展欣</t>
   </si>
   <si>
-    <t>12(已收费)</t>
-  </si>
-  <si>
-    <t>Cocobolo</t>
+    <t>Cocobolo(2)</t>
+  </si>
+  <si>
+    <t>Cocobolo(3)</t>
   </si>
   <si>
     <t>补位1</t>
   </si>
   <si>
-    <t>暴躁的阿呆</t>
-  </si>
-  <si>
     <t>补位2</t>
-  </si>
-  <si>
-    <t>蔡泽赟(2)</t>
   </si>
   <si>
     <t>补位3</t>
@@ -147,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -169,6 +130,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -177,17 +145,85 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,13 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -214,29 +243,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -244,14 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -259,56 +266,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,43 +294,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,127 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,45 +503,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -611,21 +543,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -639,6 +556,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,137 +620,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +761,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,7 +1091,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1166,16 +1130,16 @@
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
+      <c r="B5" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -1183,148 +1147,140 @@
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="19" customHeight="1" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="19" customHeight="1" spans="1:2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="19" customHeight="1" spans="1:2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="19" customHeight="1" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="19" customHeight="1" spans="1:2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="19" customHeight="1" spans="2:2">
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="19" customHeight="1" spans="1:2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="19" customHeight="1" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="22" ht="19" customHeight="1" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="19" customHeight="1" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="23" ht="19" customHeight="1" spans="2:2">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="24" ht="19" customHeight="1" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="19" customHeight="1" spans="1:2">
-      <c r="A15" s="4" t="s">
+    <row r="25" ht="19" customHeight="1" spans="1:2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="26" ht="19" customHeight="1" spans="1:2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="19" customHeight="1" spans="1:2">
-      <c r="A16" s="4" t="s">
+    <row r="27" ht="19" customHeight="1" spans="1:2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" ht="19" customHeight="1" spans="2:2">
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" ht="19" customHeight="1" spans="1:2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" ht="19" customHeight="1" spans="1:2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" ht="19" customHeight="1" spans="2:2">
-      <c r="B23" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" ht="19" customHeight="1" spans="1:2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" ht="19" customHeight="1" spans="1:2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" ht="19" customHeight="1" spans="1:2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" ht="19" customHeight="1" spans="1:2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>8月1日(周六)晚打球报名人员</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Cocobolo(3)</t>
+  </si>
+  <si>
+    <t>枇杷</t>
   </si>
   <si>
     <t>补位1</t>
@@ -108,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -138,6 +141,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,38 +185,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +245,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,54 +260,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,181 +297,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +502,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,56 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -600,6 +568,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,145 +611,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1202,7 +1205,9 @@
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -1210,77 +1215,77 @@
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -25,21 +25,18 @@
     <t>序号</t>
   </si>
   <si>
-    <t>素白</t>
+    <t>小胖</t>
   </si>
   <si>
     <t>1(已收费)</t>
   </si>
   <si>
-    <t>小胖</t>
+    <t>蔡泽赟</t>
   </si>
   <si>
     <t>2(已收费)</t>
   </si>
   <si>
-    <t>蔡泽赟</t>
-  </si>
-  <si>
     <t>金理</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>黄镭</t>
   </si>
   <si>
-    <t>暴躁的阿呆</t>
-  </si>
-  <si>
     <t>朱展欣</t>
   </si>
   <si>
+    <t>7(已收费)</t>
+  </si>
+  <si>
     <t>Cocobolo(2)</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>枇杷</t>
+  </si>
+  <si>
+    <t>Cocobolo(4)</t>
   </si>
   <si>
     <t>补位1</t>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,6 +148,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,7 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +194,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,25 +252,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,60 +275,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -297,6 +297,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -309,19 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,151 +459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +502,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +574,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,37 +595,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,149 +611,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,7 +769,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1100,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1125,7 +1131,7 @@
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1133,7 +1139,7 @@
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
@@ -1168,13 +1174,13 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>7</v>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -1182,7 +1188,7 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1190,101 +1196,101 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
+      <c r="A13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="19" customHeight="1" spans="2:2">
-      <c r="B19" s="5" t="s">
+    <row r="19" ht="19" customHeight="1" spans="1:2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="19" customHeight="1" spans="2:2">
-      <c r="B23" s="5" t="s">
+    <row r="23" ht="19" customHeight="1" spans="1:2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
     </row>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>8月1日(周六)晚打球报名人员</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>蔡泽赟</t>
-  </si>
-  <si>
-    <t>2(已收费)</t>
   </si>
   <si>
     <t>金理</t>
@@ -112,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -132,6 +129,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -139,6 +166,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -146,23 +174,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,99 +260,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,26 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -541,6 +518,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -552,6 +555,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,30 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,137 +620,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,13 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,7 +1091,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A27"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1134,13 +1125,13 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -1148,7 +1139,7 @@
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -1156,7 +1147,7 @@
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -1164,7 +1155,7 @@
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -1172,15 +1163,15 @@
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -1188,7 +1179,7 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1196,102 +1187,102 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
+      <c r="A13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="19" customHeight="1" spans="1:2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" ht="19" customHeight="1" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+    <row r="17" ht="19" customHeight="1" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+    <row r="18" ht="19" customHeight="1" spans="1:2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+    <row r="19" ht="19" customHeight="1" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="19" customHeight="1" spans="1:2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6" t="s">
+    <row r="20" ht="19" customHeight="1" spans="1:2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="19" customHeight="1" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+    <row r="21" ht="19" customHeight="1" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" ht="19" customHeight="1" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+    <row r="22" ht="19" customHeight="1" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+    <row r="23" ht="19" customHeight="1" spans="1:2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="19" customHeight="1" spans="1:2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6" t="s">
+    <row r="24" ht="19" customHeight="1" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" ht="19" customHeight="1" spans="1:2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+    <row r="25" ht="19" customHeight="1" spans="1:2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" ht="19" customHeight="1" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+    <row r="26" ht="19" customHeight="1" spans="1:2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" ht="19" customHeight="1" spans="1:2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+    <row r="27" ht="19" customHeight="1" spans="1:2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="27" ht="19" customHeight="1" spans="1:2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>8月1日(周六)晚打球报名人员</t>
   </si>
@@ -31,37 +31,58 @@
     <t>1(已收费)</t>
   </si>
   <si>
-    <t>蔡泽赟</t>
-  </si>
-  <si>
     <t>金理</t>
   </si>
   <si>
+    <t>2(已收费)</t>
+  </si>
+  <si>
     <t>阿正</t>
   </si>
   <si>
     <t>Cocobolo(1)</t>
   </si>
   <si>
+    <t>4(已收费)</t>
+  </si>
+  <si>
     <t>黄镭</t>
   </si>
   <si>
-    <t>朱展欣</t>
+    <t>徐坤按门铃(2)</t>
+  </si>
+  <si>
+    <t>6(已收费)</t>
+  </si>
+  <si>
+    <t>Cocobolo(2)</t>
   </si>
   <si>
     <t>7(已收费)</t>
   </si>
   <si>
-    <t>Cocobolo(2)</t>
-  </si>
-  <si>
     <t>Cocobolo(3)</t>
   </si>
   <si>
+    <t>8(已收费)</t>
+  </si>
+  <si>
     <t>枇杷</t>
   </si>
   <si>
     <t>Cocobolo(4)</t>
+  </si>
+  <si>
+    <t>，1（标记）</t>
+  </si>
+  <si>
+    <t>11(已收费)</t>
+  </si>
+  <si>
+    <t>徐坤按门铃(1)</t>
+  </si>
+  <si>
+    <t>12(已收费)</t>
   </si>
   <si>
     <t>补位1</t>
@@ -129,8 +150,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -138,6 +235,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -145,44 +250,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,46 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -244,23 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,61 +315,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,121 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +520,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,65 +615,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -608,145 +629,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1112,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1122,16 +1143,16 @@
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -1139,15 +1160,15 @@
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -1155,31 +1176,31 @@
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1187,102 +1208,104 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>11</v>
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
-        <v>12</v>
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>8月1日(周六)晚打球报名人员</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+  <si>
+    <t>8月8日(周六)晚打球报名人员</t>
   </si>
   <si>
     <t>姓名</t>
@@ -25,69 +25,81 @@
     <t>序号</t>
   </si>
   <si>
+    <t>邵祥毅</t>
+  </si>
+  <si>
+    <t>素白(1)</t>
+  </si>
+  <si>
+    <t>1(已收费)</t>
+  </si>
+  <si>
+    <t>程一航</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
     <t>小胖</t>
   </si>
   <si>
-    <t>1(已收费)</t>
-  </si>
-  <si>
-    <t>金理</t>
-  </si>
-  <si>
-    <t>2(已收费)</t>
+    <t>陈寿国</t>
+  </si>
+  <si>
+    <t>小c</t>
+  </si>
+  <si>
+    <t>蔡泽赟</t>
+  </si>
+  <si>
+    <t>陈昱嘉</t>
+  </si>
+  <si>
+    <t>素白(2)</t>
+  </si>
+  <si>
+    <t>4(已收费)</t>
+  </si>
+  <si>
+    <t>唐恺</t>
+  </si>
+  <si>
+    <t>官方提醒…注意</t>
   </si>
   <si>
     <t>阿正</t>
   </si>
   <si>
+    <t>朔</t>
+  </si>
+  <si>
     <t>Cocobolo(1)</t>
   </si>
   <si>
-    <t>4(已收费)</t>
+    <t>Cocobolo(2)</t>
+  </si>
+  <si>
+    <t>叶骏</t>
+  </si>
+  <si>
+    <t>暴躁的阿呆</t>
+  </si>
+  <si>
+    <t>韦恩</t>
   </si>
   <si>
     <t>黄镭</t>
   </si>
   <si>
-    <t>徐坤按门铃(2)</t>
-  </si>
-  <si>
-    <t>6(已收费)</t>
-  </si>
-  <si>
-    <t>Cocobolo(2)</t>
-  </si>
-  <si>
-    <t>7(已收费)</t>
-  </si>
-  <si>
-    <t>Cocobolo(3)</t>
-  </si>
-  <si>
-    <t>8(已收费)</t>
-  </si>
-  <si>
-    <t>枇杷</t>
-  </si>
-  <si>
-    <t>Cocobolo(4)</t>
-  </si>
-  <si>
-    <t>，1（标记）</t>
-  </si>
-  <si>
-    <t>11(已收费)</t>
-  </si>
-  <si>
-    <t>徐坤按门铃(1)</t>
-  </si>
-  <si>
-    <t>12(已收费)</t>
+    <t>王浩</t>
   </si>
   <si>
     <t>补位1</t>
   </si>
   <si>
+    <t>子远</t>
+  </si>
+  <si>
     <t>补位2</t>
   </si>
   <si>
@@ -97,16 +109,31 @@
     <t>补位4</t>
   </si>
   <si>
+    <t>朱枭鹏</t>
+  </si>
+  <si>
     <t>补位5</t>
   </si>
   <si>
+    <t>邵祥毅(1)</t>
+  </si>
+  <si>
     <t>补位6</t>
   </si>
   <si>
+    <t>邵祥毅(2)</t>
+  </si>
+  <si>
     <t>补位7</t>
   </si>
   <si>
+    <t>邵祥毅(3)</t>
+  </si>
+  <si>
     <t>补位8</t>
+  </si>
+  <si>
+    <t>Yb_3</t>
   </si>
   <si>
     <t>补位9</t>
@@ -129,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -151,14 +178,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +253,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,38 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,38 +283,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +342,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -327,13 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,157 +504,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,8 +554,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,37 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,26 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,137 +668,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,6 +812,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,15 +1139,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:2">
@@ -1126,81 +1157,108 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:2">
+    <row r="2" ht="19" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="19" customHeight="1" spans="1:2">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" ht="19" customHeight="1" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" ht="19" customHeight="1" spans="1:2">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="19" customHeight="1" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1208,7 +1266,7 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -1216,96 +1274,114 @@
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
-        <v>27</v>
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
+      <c r="A21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
+      <c r="A22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
+      <c r="A23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>8月8日(周六)晚打球报名人员</t>
   </si>
@@ -25,81 +26,147 @@
     <t>序号</t>
   </si>
   <si>
+    <t>素白(1)</t>
+  </si>
+  <si>
+    <t>1(已收费)</t>
+  </si>
+  <si>
+    <t>王浩</t>
+  </si>
+  <si>
+    <t>13(已收费)</t>
+  </si>
+  <si>
+    <t>小胖</t>
+  </si>
+  <si>
+    <t>子远</t>
+  </si>
+  <si>
+    <t>14(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟</t>
+  </si>
+  <si>
+    <t>小c</t>
+  </si>
+  <si>
+    <t>素白(2)</t>
+  </si>
+  <si>
+    <t>4(已收费)</t>
+  </si>
+  <si>
+    <t>官方提醒…注意</t>
+  </si>
+  <si>
+    <t>热心市民阿达</t>
+  </si>
+  <si>
+    <t>5(已收费)</t>
+  </si>
+  <si>
+    <t>朱枭鹏</t>
+  </si>
+  <si>
+    <t>17(已收费)</t>
+  </si>
+  <si>
+    <t>Cocobolo(1)</t>
+  </si>
+  <si>
+    <t>6(已收费)</t>
+  </si>
+  <si>
+    <t>邵祥毅(1)</t>
+  </si>
+  <si>
+    <t>Cocobolo(2)</t>
+  </si>
+  <si>
+    <t>7(已收费)</t>
+  </si>
+  <si>
+    <t>邵祥毅(2)</t>
+  </si>
+  <si>
+    <t>叶骏</t>
+  </si>
+  <si>
+    <t>8(已收费)</t>
+  </si>
+  <si>
+    <t>邵祥毅(3)</t>
+  </si>
+  <si>
+    <t>暴躁的阿呆</t>
+  </si>
+  <si>
+    <t>9(已收费)</t>
+  </si>
+  <si>
+    <t>Yb_3</t>
+  </si>
+  <si>
+    <t>21(已收费)</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>10(已收费)</t>
+  </si>
+  <si>
+    <t>吉良吉豪</t>
+  </si>
+  <si>
+    <t>22(已收费)</t>
+  </si>
+  <si>
+    <t>小胡</t>
+  </si>
+  <si>
+    <t>阿飞</t>
+  </si>
+  <si>
+    <t>23(已收费)</t>
+  </si>
+  <si>
+    <t>黄镭</t>
+  </si>
+  <si>
+    <t>12(已收费)</t>
+  </si>
+  <si>
+    <t>Marshall 赵科嘉</t>
+  </si>
+  <si>
+    <t>24(已收费)</t>
+  </si>
+  <si>
     <t>邵祥毅</t>
   </si>
   <si>
-    <t>素白(1)</t>
-  </si>
-  <si>
-    <t>1(已收费)</t>
-  </si>
-  <si>
     <t>程一航</t>
   </si>
   <si>
-    <t>Cheng</t>
-  </si>
-  <si>
-    <t>小胖</t>
-  </si>
-  <si>
     <t>陈寿国</t>
   </si>
   <si>
-    <t>小c</t>
-  </si>
-  <si>
-    <t>蔡泽赟</t>
-  </si>
-  <si>
     <t>陈昱嘉</t>
   </si>
   <si>
-    <t>素白(2)</t>
-  </si>
-  <si>
-    <t>4(已收费)</t>
-  </si>
-  <si>
     <t>唐恺</t>
   </si>
   <si>
-    <t>官方提醒…注意</t>
-  </si>
-  <si>
-    <t>阿正</t>
-  </si>
-  <si>
     <t>朔</t>
   </si>
   <si>
-    <t>Cocobolo(1)</t>
-  </si>
-  <si>
-    <t>Cocobolo(2)</t>
-  </si>
-  <si>
-    <t>叶骏</t>
-  </si>
-  <si>
-    <t>暴躁的阿呆</t>
-  </si>
-  <si>
-    <t>韦恩</t>
-  </si>
-  <si>
-    <t>黄镭</t>
-  </si>
-  <si>
-    <t>王浩</t>
-  </si>
-  <si>
     <t>补位1</t>
   </si>
   <si>
-    <t>子远</t>
-  </si>
-  <si>
     <t>补位2</t>
   </si>
   <si>
@@ -109,31 +176,16 @@
     <t>补位4</t>
   </si>
   <si>
-    <t>朱枭鹏</t>
-  </si>
-  <si>
     <t>补位5</t>
   </si>
   <si>
-    <t>邵祥毅(1)</t>
-  </si>
-  <si>
     <t>补位6</t>
   </si>
   <si>
-    <t>邵祥毅(2)</t>
-  </si>
-  <si>
     <t>补位7</t>
   </si>
   <si>
-    <t>邵祥毅(3)</t>
-  </si>
-  <si>
     <t>补位8</t>
-  </si>
-  <si>
-    <t>Yb_3</t>
   </si>
   <si>
     <t>补位9</t>
@@ -156,12 +208,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +230,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,14 +243,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,17 +357,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,83 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -342,18 +400,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,163 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +609,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -560,31 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +663,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,17 +687,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,139 +726,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,13 +875,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,256 +1203,385 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="17.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" ht="19" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="19" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="19" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="19" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" ht="19" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="19" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" ht="19" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="19" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="8" ht="19" customHeight="1" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="19" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="19" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="19" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="D8" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="19" customHeight="1" spans="1:4">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="19" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" ht="19" customHeight="1" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="19" customHeight="1" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" ht="19" customHeight="1" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="19" customHeight="1" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" ht="19" customHeight="1" spans="1:2">
-      <c r="A16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" ht="19" customHeight="1" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" ht="19" customHeight="1" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" ht="19" customHeight="1" spans="1:2">
-      <c r="A20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" ht="19" customHeight="1" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" ht="19" customHeight="1" spans="1:2">
-      <c r="A23" s="5" t="s">
+    <row r="14" ht="19" customHeight="1" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" ht="19" customHeight="1" spans="1:2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" ht="19" customHeight="1" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" ht="19" customHeight="1" spans="1:2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" ht="19" customHeight="1" spans="1:2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="15" ht="19" customHeight="1"/>
+    <row r="16" ht="19" customHeight="1"/>
+    <row r="17" ht="19" customHeight="1"/>
+    <row r="18" ht="19" customHeight="1"/>
+    <row r="19" ht="19" customHeight="1"/>
+    <row r="20" ht="19" customHeight="1"/>
+    <row r="21" ht="19" customHeight="1"/>
+    <row r="22" ht="19" customHeight="1"/>
+    <row r="23" ht="19" customHeight="1"/>
+    <row r="24" ht="19" customHeight="1"/>
+    <row r="25" ht="19" customHeight="1"/>
+    <row r="26" ht="19" customHeight="1"/>
+    <row r="27" ht="19" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/duly.xlsx
+++ b/duly.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>8月8日(周六)晚打球报名人员</t>
   </si>
@@ -83,6 +83,9 @@
     <t>邵祥毅(1)</t>
   </si>
   <si>
+    <t>18(已收费)</t>
+  </si>
+  <si>
     <t>Cocobolo(2)</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>邵祥毅(2)</t>
+  </si>
+  <si>
+    <t>19(已收费)</t>
   </si>
   <si>
     <t>叶骏</t>
@@ -209,9 +215,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -249,70 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,15 +271,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,8 +361,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,181 +406,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,56 +615,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,6 +659,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -714,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,130 +735,130 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1212,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1320,33 +1326,33 @@
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6">
-        <v>18</v>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>20</v>
@@ -1354,58 +1360,58 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7">
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1"/>
@@ -1443,20 +1449,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1464,12 +1470,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1477,13 +1483,13 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1491,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1499,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1507,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1515,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1523,61 +1529,61 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20796" windowHeight="12875" activeTab="2"/>
+    <workbookView windowWidth="20796" windowHeight="12875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="110">
   <si>
     <t>8月15日(周六)晚打球报名人员</t>
   </si>
@@ -329,6 +330,24 @@
   <si>
     <t>注：
 1. “？”，表可能、未知</t>
+  </si>
+  <si>
+    <t>8月22日(周六)晚打球报名人员</t>
+  </si>
+  <si>
+    <t>金理</t>
+  </si>
+  <si>
+    <t>蔡泽赟(1)</t>
+  </si>
+  <si>
+    <t>蔡泽赟(2)</t>
+  </si>
+  <si>
+    <t>蔡泽赟(3)</t>
+  </si>
+  <si>
+    <t>补3</t>
   </si>
 </sst>
 </file>
@@ -336,15 +355,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,41 +401,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +436,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -424,57 +451,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,16 +473,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,12 +504,43 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -532,25 +551,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,37 +617,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +701,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,19 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,110 +759,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -753,17 +772,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -802,26 +810,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,15 +873,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,6 +897,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -885,17 +930,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,10 +952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,193 +964,199 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1429,7 +1480,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1442,407 +1493,407 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:6">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:6">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:6">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:6">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:6">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:6">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="4">
         <v>12</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:4">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:4">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:5">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:5">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:5">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1906,102 +1957,102 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2016,8 +2067,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2031,164 +2082,164 @@
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" ht="24.4" customHeight="1"/>
     <row r="10" ht="24.4" customHeight="1"/>
@@ -2204,4 +2255,219 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="16.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="18.4" customHeight="1" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="18.4" customHeight="1" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/duly.xlsx
+++ b/duly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20796" windowHeight="12995"/>
+    <workbookView windowWidth="20796" windowHeight="12995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
-  <si>
-    <t>8月22日(周六)晚打球报名人员</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
+  <si>
+    <t>8月29日(周六)晚打球报名人员</t>
   </si>
   <si>
     <t>姓名</t>
@@ -36,88 +36,100 @@
     <t>官方提醒…注意</t>
   </si>
   <si>
+    <t>王浩</t>
+  </si>
+  <si>
     <t>2(已收费)</t>
   </si>
   <si>
+    <t>篮球场老大爷</t>
+  </si>
+  <si>
     <t>小胖</t>
   </si>
   <si>
+    <t>子远</t>
+  </si>
+  <si>
+    <t>3(已收费)</t>
+  </si>
+  <si>
+    <t>小c</t>
+  </si>
+  <si>
+    <t>朱展欣</t>
+  </si>
+  <si>
+    <t>4(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟(1)</t>
+  </si>
+  <si>
+    <t>蔡泽赟</t>
+  </si>
+  <si>
+    <t>Cocobolo(1)</t>
+  </si>
+  <si>
+    <t>5(已收费)</t>
+  </si>
+  <si>
+    <t>阿飞</t>
+  </si>
+  <si>
+    <t>Cocobolo(2)</t>
+  </si>
+  <si>
+    <t>6(已收费)</t>
+  </si>
+  <si>
+    <t>Cocobolo</t>
+  </si>
+  <si>
+    <t>Marshall 赵科嘉</t>
+  </si>
+  <si>
+    <t>7(已收费)</t>
+  </si>
+  <si>
+    <t>Antares</t>
+  </si>
+  <si>
+    <t>8(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟(2)</t>
+  </si>
+  <si>
+    <t>朱枭鹏</t>
+  </si>
+  <si>
+    <t>9(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟(3)</t>
+  </si>
+  <si>
+    <t>10(已收费)</t>
+  </si>
+  <si>
     <t>Cheng</t>
   </si>
   <si>
-    <t>3(已收费)</t>
-  </si>
-  <si>
-    <t>王浩</t>
-  </si>
-  <si>
-    <t>金理</t>
-  </si>
-  <si>
-    <t>4(已收费)</t>
-  </si>
-  <si>
-    <t>蔡泽赟</t>
-  </si>
-  <si>
-    <t>蔡泽赟(1)</t>
-  </si>
-  <si>
-    <t>5(已收费)</t>
-  </si>
-  <si>
-    <t>阿飞</t>
-  </si>
-  <si>
-    <t>6(已收费)</t>
-  </si>
-  <si>
-    <t>Cocobolo(1)</t>
-  </si>
-  <si>
-    <t>7(已收费)</t>
-  </si>
-  <si>
-    <t>Cocobolo(2)</t>
-  </si>
-  <si>
-    <t>8(已收费)</t>
-  </si>
-  <si>
-    <t>蔡泽赟(2)</t>
-  </si>
-  <si>
-    <t>9(已收费)</t>
-  </si>
-  <si>
-    <t>Antares</t>
-  </si>
-  <si>
-    <t>蔡泽赟(3)</t>
-  </si>
-  <si>
-    <t>10(已收费)</t>
-  </si>
-  <si>
-    <t>Marshall 赵科嘉</t>
-  </si>
-  <si>
-    <t>朱枭鹏</t>
-  </si>
-  <si>
     <t>11(已收费)</t>
   </si>
   <si>
     <t>12(已收费)</t>
   </si>
   <si>
+    <t>顾小白</t>
+  </si>
+  <si>
     <t>陈大鹿(1)</t>
   </si>
   <si>
-    <t>朱展欣</t>
-  </si>
-  <si>
-    <t>补1(已收费)</t>
+    <t>hero</t>
   </si>
   <si>
     <t>补1</t>
@@ -259,28 +271,52 @@
 1. “？”，表可能、未知</t>
   </si>
   <si>
-    <t>8月21日(周五)晚8-10点打球报名人员</t>
+    <r>
+      <t>8月28日(周五)晚6-8点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打球报名人员</t>
+    </r>
   </si>
   <si>
     <t>BinBin</t>
   </si>
   <si>
+    <t>教练我想打篮球</t>
+  </si>
+  <si>
     <t>luck__pop</t>
   </si>
   <si>
-    <t>教练我想打篮球</t>
+    <t>傅天豪</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
   <si>
     <t>名字太俊不提也罢</t>
   </si>
   <si>
+    <t>Masaga</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
     <t>吴王</t>
   </si>
   <si>
-    <t>Masaga</t>
+    <t>杨帅杰</t>
+  </si>
+  <si>
+    <t>枫</t>
   </si>
   <si>
     <t>雷西</t>
@@ -292,7 +328,19 @@
     <t>UX</t>
   </si>
   <si>
-    <t>杨帅杰</t>
+    <t>翁储武</t>
+  </si>
+  <si>
+    <t>加肥猫</t>
+  </si>
+  <si>
+    <t>旋律</t>
+  </si>
+  <si>
+    <t>他们都叫我彭于晏</t>
+  </si>
+  <si>
+    <t>Mr.J</t>
   </si>
 </sst>
 </file>
@@ -301,12 +349,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -335,14 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -359,10 +407,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,11 +421,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,9 +450,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,21 +466,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,16 +488,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,22 +504,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,6 +526,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -526,85 +574,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,91 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,21 +851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -842,6 +875,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -853,15 +904,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,11 +923,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,7 +948,7 @@
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,145 +957,190 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,49 +1148,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1421,8 +1481,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1435,7 +1495,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -1443,352 +1503,381 @@
       <c r="D1" s="17"/>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:6">
+      <c r="A5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="A6" s="19" t="s">
         <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="19" customHeight="1" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="19" customHeight="1" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:6">
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:6">
+      <c r="A11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:6">
+      <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="19" customHeight="1" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="19" customHeight="1" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="19" customHeight="1" spans="1:6">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="13" ht="19" customHeight="1" spans="1:6">
+      <c r="A13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="19" customHeight="1" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="19" customHeight="1" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
+    </row>
+    <row r="16" ht="19" customHeight="1" spans="1:4">
+      <c r="A16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" ht="19" customHeight="1" spans="1:5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="19" customHeight="1" spans="1:6">
-      <c r="A14" s="5" t="s">
+    <row r="18" ht="19" customHeight="1" spans="1:5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="19" customHeight="1" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4">
+    </row>
+    <row r="20" ht="19" customHeight="1" spans="1:5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="19" customHeight="1" spans="1:5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5">
         <v>12</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="19" customHeight="1" spans="1:4">
-      <c r="A15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" ht="19" customHeight="1" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" ht="19" customHeight="1" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="19" customHeight="1" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="22" ht="19" customHeight="1" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" ht="19" customHeight="1" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
+    </row>
+    <row r="23" ht="19" customHeight="1" spans="1:5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" ht="19" customHeight="1" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="19" customHeight="1" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="19" customHeight="1" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" ht="19" customHeight="1" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>47</v>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>48</v>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>49</v>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>50</v>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1820,198 +1909,198 @@
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:8">
-      <c r="A1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="D2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="13"/>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" ht="24.4" customHeight="1" spans="1:8">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" ht="24.4" customHeight="1" spans="1:8">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" ht="24.4" customHeight="1" spans="1:8">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" ht="24.4" customHeight="1" spans="1:8">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:8">
-      <c r="A10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" ht="24.4" customHeight="1"/>
     <row r="12" ht="24.4" customHeight="1"/>
@@ -2032,21 +2121,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2058,177 +2149,271 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="18.4" customHeight="1" spans="1:2">
+    <row r="3" ht="18.4" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="18.4" customHeight="1" spans="1:2">
+      <c r="C3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="18.4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="4">
+        <v>86</v>
+      </c>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="18.4" customHeight="1" spans="1:2">
+      <c r="C4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" ht="18.4" customHeight="1" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="4">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" ht="18.4" customHeight="1" spans="1:2">
+      <c r="C5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" ht="18.4" customHeight="1" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="4">
+        <v>89</v>
+      </c>
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="C7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" ht="18.4" customHeight="1" spans="1:2">
+      <c r="C8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" ht="18.4" customHeight="1" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="4">
+        <v>94</v>
+      </c>
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" ht="18.4" customHeight="1" spans="1:2">
+      <c r="C9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" ht="18.4" customHeight="1" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="4">
+        <v>95</v>
+      </c>
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" ht="18.4" customHeight="1" spans="1:3">
+      <c r="C10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" ht="18.4" customHeight="1" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="4">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" ht="18.4" customHeight="1" spans="1:3">
+      <c r="C11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" ht="18.4" customHeight="1" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="4">
+        <v>98</v>
+      </c>
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="C12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4">
+      <c r="C13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" ht="18.4" customHeight="1" spans="2:2">
+      <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
+    <row r="20" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="21" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
+    <row r="24" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
+    <row r="25" ht="18.4" customHeight="1" spans="1:2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="26" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>50</v>
       </c>
     </row>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20796" windowHeight="12995" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
   <si>
     <t>8月29日(周六)晚打球报名人员</t>
   </si>
@@ -272,6 +272,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8月28日(周五)晚6-8点</t>
     </r>
     <r>
@@ -341,6 +349,9 @@
   </si>
   <si>
     <t>Mr.J</t>
+  </si>
+  <si>
+    <t>运维-易志平</t>
   </si>
 </sst>
 </file>
@@ -398,7 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -415,14 +425,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,13 +448,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -451,14 +455,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,22 +479,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,15 +494,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,7 +510,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,19 +579,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,43 +699,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,115 +759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,11 +853,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,8 +893,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,33 +916,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,17 +940,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,10 +956,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,137 +968,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1145,9 +1156,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1155,9 +1163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1551,7 +1556,7 @@
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1568,7 +1573,7 @@
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1605,7 +1610,7 @@
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1636,7 +1641,7 @@
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:6">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1653,7 +1658,7 @@
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:6">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1670,7 +1675,7 @@
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:6">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1687,10 +1692,10 @@
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1733,12 +1738,12 @@
       <c r="D15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:4">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2124,7 +2129,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2344,7 +2349,7 @@
     </row>
     <row r="17" ht="18.4" customHeight="1" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B17" s="4">
         <v>15</v>
@@ -2355,7 +2360,7 @@
     </row>
     <row r="18" ht="18.4" customHeight="1" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="4">
         <v>16</v>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13884" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13884" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>8月29日(周六)晚打球报名人员</t>
   </si>
@@ -353,20 +354,105 @@
   <si>
     <t>运维-易志平</t>
   </si>
+  <si>
+    <t>附近场地选址册（周六晚20:00-22:00）</t>
+  </si>
+  <si>
+    <t>价格(2小时/元)</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>距量子方馆距离(km)</t>
+  </si>
+  <si>
+    <t>硬核公园（杭行荟馆）</t>
+  </si>
+  <si>
+    <t>大棚水泥</t>
+  </si>
+  <si>
+    <t>自然通风+风扇</t>
+  </si>
+  <si>
+    <t>余杭区祥运路杭行荟MO MALL</t>
+  </si>
+  <si>
+    <t>硬核公园（西湖文化广场馆）</t>
+  </si>
+  <si>
+    <t>室内地胶半场</t>
+  </si>
+  <si>
+    <t>下城区西湖文化广场负二楼</t>
+  </si>
+  <si>
+    <t>柒号主场（星河馆）</t>
+  </si>
+  <si>
+    <t>下城区沈半路281号星河灯饰市场6楼</t>
+  </si>
+  <si>
+    <t>洛克公园（紫荆天街）</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>西湖区古墩路1009号龙湖紫荆天街6楼</t>
+  </si>
+  <si>
+    <t>嗨玩星球</t>
+  </si>
+  <si>
+    <t>下城区新天地购物中心负一层</t>
+  </si>
+  <si>
+    <t>停车免费</t>
+  </si>
+  <si>
+    <t>北宸球馆</t>
+  </si>
+  <si>
+    <t>拱墅区祥园路47号2号楼</t>
+  </si>
+  <si>
+    <t>无场次</t>
+  </si>
+  <si>
+    <t>量子方馆</t>
+  </si>
+  <si>
+    <t>拱墅区余杭塘478号2号楼2层(城西银泰旁)</t>
+  </si>
+  <si>
+    <t>注：
+1. “？”，表可能、未知；
+2. 本周量子方馆没有场地，故此表仅限本周大家选定</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -382,6 +468,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -390,20 +506,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,8 +532,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,112 +617,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -555,25 +633,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +795,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,169 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,9 +865,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -815,7 +891,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -853,9 +931,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,6 +975,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,56 +1026,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -956,10 +1034,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,133 +1046,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,55 +1183,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1503,7 +1581,7 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
     </row>
@@ -1522,121 +1600,121 @@
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1644,98 +1722,98 @@
       <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>12</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="20" t="s">
@@ -1743,145 +1821,145 @@
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1900,7 +1978,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1914,198 +1992,198 @@
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" ht="24.4" customHeight="1" spans="1:8">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:8">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" ht="24.4" customHeight="1"/>
     <row r="12" ht="24.4" customHeight="1"/>
@@ -2128,7 +2206,7 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2141,284 +2219,284 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="14">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="14">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="14">
         <v>15</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" ht="18.4" customHeight="1" spans="2:2">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2429,4 +2507,270 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="26.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="13.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="15.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="36.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="19.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.22222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="52" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:9">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="4">
+        <v>350</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:9">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="4">
+        <v>400</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:9">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4">
+        <v>320</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8.8</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:9">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="4">
+        <v>600</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:9">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="4">
+        <v>400</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="4">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:9">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:9">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="4">
+        <v>520</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" ht="44" customHeight="1" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="I3:I9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/duly.xlsx
+++ b/duly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13884" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="133">
   <si>
     <t>8月29日(周六)晚打球报名人员</t>
   </si>
@@ -295,6 +295,21 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>9月4日(周五)晚6-8点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打球报名人员</t>
+    </r>
+  </si>
+  <si>
     <t>BinBin</t>
   </si>
   <si>
@@ -307,22 +322,25 @@
     <t>傅天豪</t>
   </si>
   <si>
+    <t>杨帅杰</t>
+  </si>
+  <si>
     <t>AAA</t>
   </si>
   <si>
     <t>名字太俊不提也罢</t>
   </si>
   <si>
+    <t>吴王</t>
+  </si>
+  <si>
     <t>Masaga</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>吴王</t>
-  </si>
-  <si>
-    <t>杨帅杰</t>
+    <t>翁储武</t>
   </si>
   <si>
     <t>枫</t>
@@ -331,13 +349,19 @@
     <t>雷西</t>
   </si>
   <si>
+    <t>运维-易志平</t>
+  </si>
+  <si>
     <t>路是月的痕@</t>
   </si>
   <si>
     <t>UX</t>
   </si>
   <si>
-    <t>翁储武</t>
+    <t>地球葱</t>
+  </si>
+  <si>
+    <t>m&amp;m++</t>
   </si>
   <si>
     <t>加肥猫</t>
@@ -350,9 +374,6 @@
   </si>
   <si>
     <t>Mr.J</t>
-  </si>
-  <si>
-    <t>运维-易志平</t>
   </si>
   <si>
     <t>附近场地选址册（周六晚20:00-22:00）</t>
@@ -437,10 +458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -481,13 +502,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -518,7 +538,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,6 +564,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,21 +608,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,29 +644,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -657,19 +678,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,163 +804,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,35 +952,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,15 +974,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -999,6 +985,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,8 +1022,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,10 +1055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,133 +1067,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1978,7 +1999,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2204,35 +2225,47 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:2">
+    <row r="1" ht="30" customHeight="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="12"/>
-    </row>
-    <row r="2" ht="18.4" customHeight="1" spans="1:2">
+      <c r="G1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" ht="18.4" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="18.4" customHeight="1" spans="1:4">
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="18.4" customHeight="1" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -2240,71 +2273,101 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" ht="18.4" customHeight="1" spans="1:4">
+      <c r="G3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18.4" customHeight="1" spans="1:8">
       <c r="A4" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" ht="18.4" customHeight="1" spans="1:4">
+      <c r="G4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="18.4" customHeight="1" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" ht="18.4" customHeight="1" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="18.4" customHeight="1" spans="1:8">
       <c r="A6" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" ht="18.4" customHeight="1" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="18.4" customHeight="1" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" ht="18.4" customHeight="1" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="18.4" customHeight="1" spans="1:8">
       <c r="A8" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
@@ -2313,121 +2376,161 @@
         <v>93</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" ht="18.4" customHeight="1" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="18.4" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" ht="18.4" customHeight="1" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="18.4" customHeight="1" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" ht="18.4" customHeight="1" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="18.4" customHeight="1" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" ht="18.4" customHeight="1" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="18.4" customHeight="1" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" ht="18.4" customHeight="1" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="18.4" customHeight="1" spans="1:8">
       <c r="A13" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" ht="18.4" customHeight="1" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="18.4" customHeight="1" spans="1:8">
       <c r="A14" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="18.4" customHeight="1" spans="1:4">
       <c r="A15" s="14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B15" s="14">
         <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="18.4" customHeight="1" spans="1:4">
       <c r="A16" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B16" s="14">
         <v>14</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" ht="18.4" customHeight="1" spans="1:4">
       <c r="A17" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B17" s="14">
         <v>15</v>
@@ -2438,13 +2541,13 @@
     </row>
     <row r="18" ht="18.4" customHeight="1" spans="1:4">
       <c r="A18" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B18" s="14">
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" ht="18.4" customHeight="1" spans="2:2">
@@ -2501,8 +2604,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2514,8 +2618,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2532,7 +2636,7 @@
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2557,13 +2661,13 @@
         <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>61</v>
@@ -2575,19 +2679,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" s="4">
         <v>350</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G3" s="4">
         <v>6.3</v>
@@ -2602,10 +2706,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>64</v>
@@ -2614,7 +2718,7 @@
         <v>400</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G4" s="4">
         <v>7.7</v>
@@ -2627,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>71</v>
@@ -2639,7 +2743,7 @@
         <v>320</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G5" s="4">
         <v>8.8</v>
@@ -2652,19 +2756,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4">
         <v>600</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -2677,25 +2781,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4">
         <v>400</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G7" s="4">
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -2704,23 +2808,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G8" s="4">
         <v>6.1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I8" s="9"/>
     </row>
@@ -2729,31 +2833,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E9" s="4">
         <v>520</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" ht="44" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13884" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13884"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="133">
-  <si>
-    <t>8月29日(周六)晚打球报名人员</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
+  <si>
+    <t>9月12日(周六)晚打球报名人员</t>
   </si>
   <si>
     <t>姓名</t>
@@ -28,112 +28,127 @@
     <t>序号</t>
   </si>
   <si>
+    <t>素白(1)</t>
+  </si>
+  <si>
+    <t>1(已收费)</t>
+  </si>
+  <si>
+    <t>官方提醒…注意</t>
+  </si>
+  <si>
     <t>素白</t>
   </si>
   <si>
-    <t>1(已收费)</t>
-  </si>
-  <si>
-    <t>官方提醒…注意</t>
+    <t>素白(2)</t>
+  </si>
+  <si>
+    <t>2(已收费)</t>
+  </si>
+  <si>
+    <t>篮球场老大爷</t>
+  </si>
+  <si>
+    <t>小胖</t>
+  </si>
+  <si>
+    <t>蔡泽赟(1)</t>
+  </si>
+  <si>
+    <t>3(已收费)</t>
+  </si>
+  <si>
+    <t>小c</t>
   </si>
   <si>
     <t>王浩</t>
   </si>
   <si>
-    <t>2(已收费)</t>
-  </si>
-  <si>
-    <t>篮球场老大爷</t>
-  </si>
-  <si>
-    <t>小胖</t>
+    <t>蔡泽赟(2)</t>
+  </si>
+  <si>
+    <t>4(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>5(已收费)</t>
+  </si>
+  <si>
+    <t>阿飞</t>
+  </si>
+  <si>
+    <t>朱枭鹏</t>
+  </si>
+  <si>
+    <t>6(已收费)</t>
+  </si>
+  <si>
+    <t>Cocobolo</t>
+  </si>
+  <si>
+    <t>邵祥毅</t>
+  </si>
+  <si>
+    <t>7(已收费)</t>
+  </si>
+  <si>
+    <t>朱展欣</t>
+  </si>
+  <si>
+    <t>Cocobolo(1)</t>
+  </si>
+  <si>
+    <t>8(已收费)</t>
+  </si>
+  <si>
+    <t>Cocobolo(2)</t>
+  </si>
+  <si>
+    <t>9(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟(3)</t>
+  </si>
+  <si>
+    <t>Antares</t>
+  </si>
+  <si>
+    <t>10(已收费)</t>
+  </si>
+  <si>
+    <t>Marshall 赵科嘉</t>
+  </si>
+  <si>
+    <t>赵科嘉(1)</t>
+  </si>
+  <si>
+    <t>11(已收费)</t>
+  </si>
+  <si>
+    <t>赵科嘉(2)</t>
+  </si>
+  <si>
+    <t>12(已收费)</t>
+  </si>
+  <si>
+    <t>顾小白</t>
+  </si>
+  <si>
+    <t>陈大鹿(1)</t>
   </si>
   <si>
     <t>子远</t>
   </si>
   <si>
-    <t>3(已收费)</t>
-  </si>
-  <si>
-    <t>小c</t>
-  </si>
-  <si>
-    <t>朱展欣</t>
-  </si>
-  <si>
-    <t>4(已收费)</t>
-  </si>
-  <si>
-    <t>蔡泽赟(1)</t>
-  </si>
-  <si>
-    <t>蔡泽赟</t>
-  </si>
-  <si>
-    <t>Cocobolo(1)</t>
-  </si>
-  <si>
-    <t>5(已收费)</t>
-  </si>
-  <si>
-    <t>阿飞</t>
-  </si>
-  <si>
-    <t>Cocobolo(2)</t>
-  </si>
-  <si>
-    <t>6(已收费)</t>
-  </si>
-  <si>
-    <t>Cocobolo</t>
-  </si>
-  <si>
-    <t>Marshall 赵科嘉</t>
-  </si>
-  <si>
-    <t>7(已收费)</t>
-  </si>
-  <si>
-    <t>Antares</t>
-  </si>
-  <si>
-    <t>8(已收费)</t>
-  </si>
-  <si>
-    <t>蔡泽赟(2)</t>
-  </si>
-  <si>
-    <t>朱枭鹏</t>
-  </si>
-  <si>
-    <t>9(已收费)</t>
-  </si>
-  <si>
-    <t>蔡泽赟(3)</t>
-  </si>
-  <si>
-    <t>10(已收费)</t>
-  </si>
-  <si>
-    <t>Cheng</t>
-  </si>
-  <si>
-    <t>11(已收费)</t>
-  </si>
-  <si>
-    <t>12(已收费)</t>
-  </si>
-  <si>
-    <t>顾小白</t>
-  </si>
-  <si>
-    <t>陈大鹿(1)</t>
+    <t>补1</t>
   </si>
   <si>
     <t>hero</t>
-  </si>
-  <si>
-    <t>补1</t>
   </si>
   <si>
     <t>补2</t>
@@ -296,6 +311,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9月4日(周五)晚6-8点</t>
     </r>
     <r>
@@ -458,10 +481,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -502,50 +525,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,30 +534,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +564,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,8 +600,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,6 +637,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -678,31 +701,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,150 +882,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,10 +973,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -974,16 +1023,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1003,50 +1070,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1055,10 +1078,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,133 +1090,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,10 +1281,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1585,8 +1608,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1634,72 +1657,72 @@
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>5</v>
@@ -1707,160 +1730,158 @@
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:6">
       <c r="A8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:6">
-      <c r="A10" s="20" t="s">
-        <v>25</v>
+      <c r="A10" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:6">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="19" customHeight="1" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:6">
+      <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="19" customHeight="1" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>33</v>
+      <c r="A13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4">
         <v>12</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4">
         <v>8</v>
@@ -1869,11 +1890,11 @@
     <row r="18" ht="19" customHeight="1" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4">
         <v>9</v>
@@ -1882,11 +1903,11 @@
     <row r="19" ht="19" customHeight="1" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4">
         <v>10</v>
@@ -1895,11 +1916,11 @@
     <row r="20" ht="19" customHeight="1" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4">
         <v>11</v>
@@ -1908,11 +1929,11 @@
     <row r="21" ht="19" customHeight="1" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4">
         <v>12</v>
@@ -1921,67 +1942,67 @@
     <row r="22" ht="19" customHeight="1" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:4">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:4">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:4">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +2035,7 @@
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2029,22 +2050,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2053,23 +2074,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="24.4" customHeight="1" spans="1:8">
@@ -2077,19 +2098,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="9"/>
@@ -2099,19 +2120,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="9"/>
@@ -2121,19 +2142,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="9"/>
@@ -2143,10 +2164,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2159,14 +2180,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2177,26 +2198,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2227,7 +2248,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2243,11 +2264,11 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12"/>
       <c r="G1" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H1" s="12"/>
     </row>
@@ -2267,19 +2288,19 @@
     </row>
     <row r="3" ht="18.4" customHeight="1" spans="1:8">
       <c r="A3" s="14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -2287,19 +2308,19 @@
     </row>
     <row r="4" ht="18.4" customHeight="1" spans="1:8">
       <c r="A4" s="14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
@@ -2307,19 +2328,19 @@
     </row>
     <row r="5" ht="18.4" customHeight="1" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
@@ -2327,19 +2348,19 @@
     </row>
     <row r="6" ht="18.4" customHeight="1" spans="1:8">
       <c r="A6" s="14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H6" s="4">
         <v>4</v>
@@ -2347,19 +2368,19 @@
     </row>
     <row r="7" ht="18.4" customHeight="1" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
@@ -2367,19 +2388,19 @@
     </row>
     <row r="8" ht="18.4" customHeight="1" spans="1:8">
       <c r="A8" s="14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="G8" s="15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H8" s="4">
         <v>6</v>
@@ -2387,19 +2408,19 @@
     </row>
     <row r="9" ht="18.4" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H9" s="4">
         <v>7</v>
@@ -2407,19 +2428,19 @@
     </row>
     <row r="10" ht="18.4" customHeight="1" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H10" s="4">
         <v>8</v>
@@ -2427,19 +2448,19 @@
     </row>
     <row r="11" ht="18.4" customHeight="1" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H11" s="4">
         <v>9</v>
@@ -2447,19 +2468,19 @@
     </row>
     <row r="12" ht="18.4" customHeight="1" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H12" s="4">
         <v>10</v>
@@ -2467,19 +2488,19 @@
     </row>
     <row r="13" ht="18.4" customHeight="1" spans="1:8">
       <c r="A13" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H13" s="4">
         <v>11</v>
@@ -2487,16 +2508,16 @@
     </row>
     <row r="14" ht="18.4" customHeight="1" spans="1:8">
       <c r="A14" s="14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="4">
@@ -2505,102 +2526,102 @@
     </row>
     <row r="15" ht="18.4" customHeight="1" spans="1:4">
       <c r="A15" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B15" s="14">
         <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="18.4" customHeight="1" spans="1:4">
       <c r="A16" s="14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B16" s="14">
         <v>14</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" ht="18.4" customHeight="1" spans="1:4">
       <c r="A17" s="14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B17" s="14">
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" ht="18.4" customHeight="1" spans="1:4">
       <c r="A18" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B18" s="14">
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="18.4" customHeight="1" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="18.4" customHeight="1" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="18.4" customHeight="1" spans="1:2">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="18.4" customHeight="1" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="18.4" customHeight="1" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="18.4" customHeight="1" spans="1:2">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="18.4" customHeight="1" spans="1:2">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="18.4" customHeight="1" spans="1:2">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" ht="18.4" customHeight="1" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2657,7 @@
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2652,25 +2673,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -2679,26 +2700,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E3" s="4">
         <v>350</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G3" s="4">
         <v>6.3</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:9">
@@ -2706,19 +2727,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4">
         <v>400</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G4" s="4">
         <v>7.7</v>
@@ -2731,19 +2752,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4">
         <v>320</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G5" s="4">
         <v>8.8</v>
@@ -2756,19 +2777,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E6" s="4">
         <v>600</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -2781,25 +2802,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4">
         <v>400</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G7" s="4">
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -2808,23 +2829,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G8" s="4">
         <v>6.1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I8" s="9"/>
     </row>
@@ -2833,31 +2854,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E9" s="4">
         <v>520</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" ht="44" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13884"/>
+    <workbookView windowWidth="21000" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
   <si>
     <t>9月12日(周六)晚打球报名人员</t>
   </si>
@@ -288,15 +288,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8月28日(周五)晚6-8点</t>
+      <t>9月11日(周五)晚8-10点</t>
     </r>
     <r>
       <rPr>
@@ -336,10 +328,13 @@
     <t>BinBin</t>
   </si>
   <si>
+    <t>luck__pop</t>
+  </si>
+  <si>
     <t>教练我想打篮球</t>
   </si>
   <si>
-    <t>luck__pop</t>
+    <t>m&amp;m++</t>
   </si>
   <si>
     <t>傅天豪</t>
@@ -348,45 +343,42 @@
     <t>杨帅杰</t>
   </si>
   <si>
+    <t>Masaga</t>
+  </si>
+  <si>
+    <t>名字太俊不提也罢</t>
+  </si>
+  <si>
     <t>AAA</t>
   </si>
   <si>
-    <t>名字太俊不提也罢</t>
-  </si>
-  <si>
     <t>吴王</t>
   </si>
   <si>
-    <t>Masaga</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>翁储武</t>
   </si>
   <si>
+    <t>雷西</t>
+  </si>
+  <si>
     <t>枫</t>
   </si>
   <si>
-    <t>雷西</t>
-  </si>
-  <si>
     <t>运维-易志平</t>
   </si>
   <si>
+    <t>UX</t>
+  </si>
+  <si>
     <t>路是月的痕@</t>
   </si>
   <si>
-    <t>UX</t>
-  </si>
-  <si>
     <t>地球葱</t>
   </si>
   <si>
-    <t>m&amp;m++</t>
-  </si>
-  <si>
     <t>加肥猫</t>
   </si>
   <si>
@@ -396,6 +388,9 @@
     <t>他们都叫我彭于晏</t>
   </si>
   <si>
+    <t>运维--张曾伟</t>
+  </si>
+  <si>
     <t>Mr.J</t>
   </si>
   <si>
@@ -459,16 +454,22 @@
     <t>北宸球馆</t>
   </si>
   <si>
+    <t>空调(恒温馆)</t>
+  </si>
+  <si>
     <t>拱墅区祥园路47号2号楼</t>
   </si>
   <si>
+    <t>停车5元/小时</t>
+  </si>
+  <si>
+    <t>量子方馆</t>
+  </si>
+  <si>
+    <t>拱墅区余杭塘478号2号楼2层(城西银泰旁)</t>
+  </si>
+  <si>
     <t>无场次</t>
-  </si>
-  <si>
-    <t>量子方馆</t>
-  </si>
-  <si>
-    <t>拱墅区余杭塘478号2号楼2层(城西银泰旁)</t>
   </si>
   <si>
     <t>注：
@@ -482,9 +483,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -512,6 +513,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -519,8 +526,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,9 +546,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,7 +585,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,7 +593,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,6 +614,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -614,14 +653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -637,36 +668,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -701,61 +702,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,121 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,6 +974,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -988,22 +1007,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,32 +1040,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,6 +1060,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1078,145 +1079,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,6 +1240,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1263,10 +1267,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1608,8 +1609,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1625,7 +1626,7 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
     </row>
@@ -1712,24 +1713,24 @@
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1741,12 +1742,12 @@
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1758,12 +1759,12 @@
       <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1775,12 +1776,12 @@
       <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1792,72 +1793,72 @@
       <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="4">
         <v>12</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="21" t="s">
@@ -1865,22 +1866,24 @@
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="4">
@@ -1888,12 +1891,12 @@
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="4">
@@ -1901,12 +1904,12 @@
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="4">
@@ -1914,12 +1917,12 @@
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="4">
@@ -1927,12 +1930,12 @@
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="4">
@@ -1940,68 +1943,68 @@
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2043,7 +2046,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" ht="24.4" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -2089,7 +2092,7 @@
         <v>71</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2113,7 +2116,7 @@
         <v>71</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="24.4" customHeight="1" spans="1:8">
       <c r="A5" s="4">
@@ -2135,7 +2138,7 @@
         <v>78</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" ht="24.4" customHeight="1" spans="1:8">
       <c r="A6" s="4">
@@ -2157,7 +2160,7 @@
         <v>69</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" ht="24.4" customHeight="1" spans="1:8">
       <c r="A7" s="4">
@@ -2173,7 +2176,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" ht="24.4" customHeight="1" spans="1:8">
       <c r="A8" s="4">
@@ -2191,7 +2194,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" ht="24.4" customHeight="1" spans="1:8">
       <c r="A9" s="4">
@@ -2213,19 +2216,19 @@
         <v>87</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" ht="24.4" customHeight="1"/>
     <row r="12" ht="24.4" customHeight="1"/>
@@ -2248,8 +2251,8 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2263,31 +2266,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="G1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4">
@@ -2296,10 +2299,10 @@
       <c r="C3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="4">
@@ -2307,77 +2310,77 @@
       </c>
     </row>
     <row r="4" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="G4" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>95</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A6" s="14" t="s">
-        <v>96</v>
+      <c r="A6" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="14" t="s">
         <v>98</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="H6" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A7" s="15" t="s">
-        <v>99</v>
+      <c r="A7" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>91</v>
@@ -2387,40 +2390,40 @@
       </c>
     </row>
     <row r="8" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A8" s="14" t="s">
-        <v>93</v>
+      <c r="A8" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>93</v>
+      <c r="C8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A9" s="15" t="s">
-        <v>95</v>
+      <c r="A9" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="H9" s="4">
         <v>7</v>
@@ -2428,7 +2431,7 @@
     </row>
     <row r="10" ht="18.4" customHeight="1" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
@@ -2436,11 +2439,11 @@
       <c r="C10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="D10" s="5" t="s">
         <v>104</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="H10" s="4">
         <v>8</v>
@@ -2448,27 +2451,27 @@
     </row>
     <row r="11" ht="18.4" customHeight="1" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>94</v>
+      <c r="G11" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="H11" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A12" s="15" t="s">
-        <v>106</v>
+      <c r="A12" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
@@ -2476,152 +2479,150 @@
       <c r="C12" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>107</v>
+      <c r="G12" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="H12" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A13" s="14" t="s">
-        <v>101</v>
+      <c r="A13" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="H13" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A14" s="14" t="s">
-        <v>108</v>
+      <c r="A14" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" ht="18.4" customHeight="1" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="14">
-        <v>13</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A16" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="14">
-        <v>14</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A17" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="14">
-        <v>15</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="18" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="14">
-        <v>16</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>112</v>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" ht="18.4" customHeight="1" spans="2:2">
-      <c r="B19" s="5" t="s">
-        <v>42</v>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>44</v>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>45</v>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>47</v>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>48</v>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>50</v>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>52</v>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>54</v>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" ht="18.4" customHeight="1" spans="1:2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>55</v>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2641,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2652,12 +2653,12 @@
     <col min="5" max="5" width="15.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="36.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="19.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="9.22222222222222" customWidth="1"/>
+    <col min="8" max="8" width="12.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2666,7 +2667,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="8"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2682,13 +2683,13 @@
         <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>66</v>
@@ -2700,25 +2701,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" s="4">
         <v>350</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G3" s="4">
         <v>6.3</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2727,10 +2728,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>69</v>
@@ -2739,20 +2740,20 @@
         <v>400</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G4" s="4">
         <v>7.7</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:9">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>76</v>
@@ -2764,130 +2765,132 @@
         <v>320</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G5" s="4">
         <v>8.8</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:9">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4">
         <v>600</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:9">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7" s="4">
         <v>400</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G7" s="4">
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:9">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="E8" s="4">
+        <v>400</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G8" s="4">
         <v>6.1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:9">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9" s="4">
         <v>520</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="9"/>
+      <c r="H9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" ht="44" customHeight="1" spans="1:9">
-      <c r="A10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="13140" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
-  <si>
-    <t>9月12日(周六)晚打球报名人员</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="140">
+  <si>
+    <t>9月19日(周六)晚打球报名人员</t>
   </si>
   <si>
     <t>姓名</t>
@@ -28,7 +28,7 @@
     <t>序号</t>
   </si>
   <si>
-    <t>素白(1)</t>
+    <t>素白</t>
   </si>
   <si>
     <t>1(已收费)</t>
@@ -37,10 +37,7 @@
     <t>官方提醒…注意</t>
   </si>
   <si>
-    <t>素白</t>
-  </si>
-  <si>
-    <t>素白(2)</t>
+    <t>Cheng</t>
   </si>
   <si>
     <t>2(已收费)</t>
@@ -52,63 +49,66 @@
     <t>小胖</t>
   </si>
   <si>
+    <t>蔡泽赟</t>
+  </si>
+  <si>
+    <t>3(已收费)</t>
+  </si>
+  <si>
+    <t>小c</t>
+  </si>
+  <si>
+    <t>王浩</t>
+  </si>
+  <si>
+    <t>邵祥毅</t>
+  </si>
+  <si>
+    <t>4(已收费)</t>
+  </si>
+  <si>
     <t>蔡泽赟(1)</t>
   </si>
   <si>
-    <t>3(已收费)</t>
-  </si>
-  <si>
-    <t>小c</t>
-  </si>
-  <si>
-    <t>王浩</t>
+    <t>5(已收费)</t>
+  </si>
+  <si>
+    <t>阿飞</t>
+  </si>
+  <si>
+    <t>老胡(1)</t>
+  </si>
+  <si>
+    <t>6(已收费)</t>
+  </si>
+  <si>
+    <t>Cocobolo</t>
+  </si>
+  <si>
+    <t>老胡(2)</t>
+  </si>
+  <si>
+    <t>7(已收费)</t>
+  </si>
+  <si>
+    <t>朱展欣</t>
+  </si>
+  <si>
+    <t>Cocobolo(1)</t>
+  </si>
+  <si>
+    <t>8(已收费)</t>
   </si>
   <si>
     <t>蔡泽赟(2)</t>
   </si>
   <si>
-    <t>4(已收费)</t>
-  </si>
-  <si>
-    <t>蔡泽赟</t>
-  </si>
-  <si>
-    <t>Cheng</t>
-  </si>
-  <si>
-    <t>5(已收费)</t>
-  </si>
-  <si>
-    <t>阿飞</t>
+    <t>Cocobolo(2)</t>
   </si>
   <si>
     <t>朱枭鹏</t>
   </si>
   <si>
-    <t>6(已收费)</t>
-  </si>
-  <si>
-    <t>Cocobolo</t>
-  </si>
-  <si>
-    <t>邵祥毅</t>
-  </si>
-  <si>
-    <t>7(已收费)</t>
-  </si>
-  <si>
-    <t>朱展欣</t>
-  </si>
-  <si>
-    <t>Cocobolo(1)</t>
-  </si>
-  <si>
-    <t>8(已收费)</t>
-  </si>
-  <si>
-    <t>Cocobolo(2)</t>
-  </si>
-  <si>
     <t>9(已收费)</t>
   </si>
   <si>
@@ -118,21 +118,21 @@
     <t>Antares</t>
   </si>
   <si>
+    <t>九堡马洪</t>
+  </si>
+  <si>
     <t>10(已收费)</t>
   </si>
   <si>
     <t>Marshall 赵科嘉</t>
   </si>
   <si>
-    <t>赵科嘉(1)</t>
+    <t>子远</t>
   </si>
   <si>
     <t>11(已收费)</t>
   </si>
   <si>
-    <t>赵科嘉(2)</t>
-  </si>
-  <si>
     <t>12(已收费)</t>
   </si>
   <si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>陈大鹿(1)</t>
-  </si>
-  <si>
-    <t>子远</t>
   </si>
   <si>
     <t>补1</t>
@@ -288,6 +285,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9月11日(周五)晚8-10点</t>
     </r>
     <r>
@@ -482,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -525,29 +530,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,14 +592,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,18 +621,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,32 +653,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,6 +707,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -714,175 +839,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +983,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,8 +1006,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,45 +1057,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1071,6 +1067,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1079,10 +1084,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,137 +1096,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,6 +1288,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1609,8 +1617,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1658,72 +1666,72 @@
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="19" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>5</v>
@@ -1731,58 +1739,58 @@
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>30</v>
@@ -1799,41 +1807,41 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
+      <c r="A13" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>38</v>
@@ -1849,55 +1857,58 @@
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" ht="19" customHeight="1" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
+    <row r="16" ht="19" customHeight="1" spans="1:6">
+      <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:5">
-      <c r="A18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4">
         <v>9</v>
@@ -1906,11 +1917,11 @@
     <row r="19" ht="19" customHeight="1" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4">
         <v>10</v>
@@ -1919,11 +1930,11 @@
     <row r="20" ht="19" customHeight="1" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4">
         <v>11</v>
@@ -1932,11 +1943,11 @@
     <row r="21" ht="19" customHeight="1" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4">
         <v>12</v>
@@ -1945,67 +1956,67 @@
     <row r="22" ht="19" customHeight="1" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:4">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2049,7 @@
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2053,22 +2064,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2077,23 +2088,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" ht="24.4" customHeight="1" spans="1:8">
@@ -2101,19 +2112,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="10"/>
@@ -2123,19 +2134,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="10"/>
@@ -2145,19 +2156,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="10"/>
@@ -2167,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2183,14 +2194,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2201,26 +2212,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2251,7 +2262,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2267,11 +2278,11 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:8">
       <c r="A1" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="13"/>
       <c r="G1" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="13"/>
     </row>
@@ -2291,19 +2302,19 @@
     </row>
     <row r="3" ht="18.4" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -2311,19 +2322,19 @@
     </row>
     <row r="4" ht="18.4" customHeight="1" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
@@ -2331,19 +2342,19 @@
     </row>
     <row r="5" ht="18.4" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
@@ -2351,19 +2362,19 @@
     </row>
     <row r="6" ht="18.4" customHeight="1" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="H6" s="4">
         <v>4</v>
@@ -2371,19 +2382,19 @@
     </row>
     <row r="7" ht="18.4" customHeight="1" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
@@ -2391,19 +2402,19 @@
     </row>
     <row r="8" ht="18.4" customHeight="1" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="4">
         <v>6</v>
@@ -2411,19 +2422,19 @@
     </row>
     <row r="9" ht="18.4" customHeight="1" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="4">
         <v>7</v>
@@ -2431,19 +2442,19 @@
     </row>
     <row r="10" ht="18.4" customHeight="1" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="H10" s="4">
         <v>8</v>
@@ -2451,19 +2462,19 @@
     </row>
     <row r="11" ht="18.4" customHeight="1" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="4">
         <v>9</v>
@@ -2471,19 +2482,19 @@
     </row>
     <row r="12" ht="18.4" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="4">
         <v>10</v>
@@ -2491,19 +2502,19 @@
     </row>
     <row r="13" ht="18.4" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="4">
         <v>11</v>
@@ -2511,16 +2522,16 @@
     </row>
     <row r="14" ht="18.4" customHeight="1" spans="1:8">
       <c r="A14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="4">
@@ -2529,100 +2540,100 @@
     </row>
     <row r="15" ht="18.4" customHeight="1" spans="1:4">
       <c r="A15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="18.4" customHeight="1" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="18.4" customHeight="1" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" ht="18.4" customHeight="1" spans="1:4">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="18.4" customHeight="1" spans="2:2">
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="18.4" customHeight="1" spans="1:2">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="18.4" customHeight="1" spans="1:2">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="18.4" customHeight="1" spans="1:2">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="18.4" customHeight="1" spans="1:2">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="18.4" customHeight="1" spans="1:2">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="18.4" customHeight="1" spans="1:2">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="18.4" customHeight="1" spans="1:2">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="18.4" customHeight="1" spans="1:2">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2669,7 @@
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2674,25 +2685,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -2701,26 +2712,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="E3" s="4">
         <v>350</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="4">
         <v>6.3</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:9">
@@ -2728,19 +2739,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4">
         <v>400</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="4">
         <v>7.7</v>
@@ -2753,19 +2764,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4">
         <v>320</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="4">
         <v>8.8</v>
@@ -2778,19 +2789,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="E6" s="4">
         <v>600</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -2803,25 +2814,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4">
         <v>400</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="4">
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="10"/>
     </row>
@@ -2830,25 +2841,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E8" s="4">
         <v>400</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="4">
         <v>6.1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -2857,31 +2868,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="4">
         <v>520</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I9" s="10"/>
     </row>
     <row r="10" ht="44" customHeight="1" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>

--- a/duly.xlsx
+++ b/duly.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="140">
-  <si>
-    <t>9月19日(周六)晚打球报名人员</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="152">
+  <si>
+    <t>10月17日(周六)晚打球报名人员</t>
   </si>
   <si>
     <t>姓名</t>
@@ -28,66 +28,72 @@
     <t>序号</t>
   </si>
   <si>
+    <t>虎皮小班爹</t>
+  </si>
+  <si>
+    <t>1(已收费)</t>
+  </si>
+  <si>
+    <t>官方提醒…注意</t>
+  </si>
+  <si>
     <t>素白</t>
   </si>
   <si>
-    <t>1(已收费)</t>
-  </si>
-  <si>
-    <t>官方提醒…注意</t>
+    <t>素白(1)</t>
+  </si>
+  <si>
+    <t>2(已收费)</t>
+  </si>
+  <si>
+    <t>篮球场老大爷</t>
+  </si>
+  <si>
+    <t>小胖</t>
+  </si>
+  <si>
+    <t>素白(2)</t>
+  </si>
+  <si>
+    <t>3(已收费)</t>
+  </si>
+  <si>
+    <t>小c</t>
+  </si>
+  <si>
+    <t>王浩</t>
+  </si>
+  <si>
+    <t>素白(3)</t>
+  </si>
+  <si>
+    <t>4(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟(1)</t>
+  </si>
+  <si>
+    <t>蔡泽赟</t>
+  </si>
+  <si>
+    <t>素白(4)</t>
+  </si>
+  <si>
+    <t>5(已收费)</t>
+  </si>
+  <si>
+    <t>阿飞</t>
   </si>
   <si>
     <t>Cheng</t>
   </si>
   <si>
-    <t>2(已收费)</t>
-  </si>
-  <si>
-    <t>篮球场老大爷</t>
-  </si>
-  <si>
-    <t>小胖</t>
-  </si>
-  <si>
-    <t>蔡泽赟</t>
-  </si>
-  <si>
-    <t>3(已收费)</t>
-  </si>
-  <si>
-    <t>小c</t>
-  </si>
-  <si>
-    <t>王浩</t>
-  </si>
-  <si>
-    <t>邵祥毅</t>
-  </si>
-  <si>
-    <t>4(已收费)</t>
-  </si>
-  <si>
-    <t>蔡泽赟(1)</t>
-  </si>
-  <si>
-    <t>5(已收费)</t>
-  </si>
-  <si>
-    <t>阿飞</t>
-  </si>
-  <si>
-    <t>老胡(1)</t>
-  </si>
-  <si>
     <t>6(已收费)</t>
   </si>
   <si>
     <t>Cocobolo</t>
   </si>
   <si>
-    <t>老胡(2)</t>
-  </si>
-  <si>
     <t>7(已收费)</t>
   </si>
   <si>
@@ -106,55 +112,64 @@
     <t>Cocobolo(2)</t>
   </si>
   <si>
+    <t>9(已收费)</t>
+  </si>
+  <si>
+    <t>蔡泽赟(3)</t>
+  </si>
+  <si>
+    <t>Antares</t>
+  </si>
+  <si>
+    <t>叶骏</t>
+  </si>
+  <si>
+    <t>10(已收费)</t>
+  </si>
+  <si>
     <t>朱枭鹏</t>
   </si>
   <si>
-    <t>9(已收费)</t>
-  </si>
-  <si>
-    <t>蔡泽赟(3)</t>
-  </si>
-  <si>
-    <t>Antares</t>
+    <t>Marshall 赵科嘉</t>
+  </si>
+  <si>
+    <t>邵祥毅(1)</t>
+  </si>
+  <si>
+    <t>11(已收费)</t>
+  </si>
+  <si>
+    <t>邵祥毅(2)</t>
+  </si>
+  <si>
+    <t>12(已收费)</t>
+  </si>
+  <si>
+    <t>顾小白</t>
+  </si>
+  <si>
+    <t>陈大鹿(1)</t>
+  </si>
+  <si>
+    <t>补1</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>补2</t>
   </si>
   <si>
     <t>九堡马洪</t>
   </si>
   <si>
-    <t>10(已收费)</t>
-  </si>
-  <si>
-    <t>Marshall 赵科嘉</t>
-  </si>
-  <si>
-    <t>子远</t>
-  </si>
-  <si>
-    <t>11(已收费)</t>
-  </si>
-  <si>
-    <t>12(已收费)</t>
-  </si>
-  <si>
-    <t>顾小白</t>
-  </si>
-  <si>
-    <t>陈大鹿(1)</t>
-  </si>
-  <si>
-    <t>补1</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>补2</t>
-  </si>
-  <si>
     <t>补3</t>
   </si>
   <si>
     <t>补3(已发)</t>
+  </si>
+  <si>
+    <t>徐坤按门铃</t>
   </si>
   <si>
     <t>补4</t>
@@ -293,7 +308,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9月11日(周五)晚8-10点</t>
+      <t>9月18日(周五)晚8-10点</t>
     </r>
     <r>
       <rPr>
@@ -330,45 +345,100 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9月25日(周五)晚6-8点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打球报名人员</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10月16日(周五)晚8-10点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打球报名人员</t>
+    </r>
+  </si>
+  <si>
     <t>BinBin</t>
   </si>
   <si>
+    <t>运维--张曾伟</t>
+  </si>
+  <si>
     <t>luck__pop</t>
   </si>
   <si>
     <t>教练我想打篮球</t>
   </si>
   <si>
+    <t>傅天豪</t>
+  </si>
+  <si>
+    <t>杨铖</t>
+  </si>
+  <si>
+    <t>杨帅杰</t>
+  </si>
+  <si>
     <t>m&amp;m++</t>
   </si>
   <si>
-    <t>傅天豪</t>
-  </si>
-  <si>
-    <t>杨帅杰</t>
+    <t>名字太俊不提也罢</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>吴王</t>
+  </si>
+  <si>
+    <t>雷西</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>Masaga</t>
   </si>
   <si>
-    <t>名字太俊不提也罢</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>吴王</t>
-  </si>
-  <si>
-    <t>W</t>
+    <t>曾zitao</t>
   </si>
   <si>
     <t>翁储武</t>
   </si>
   <si>
-    <t>雷西</t>
-  </si>
-  <si>
     <t>枫</t>
   </si>
   <si>
@@ -384,16 +454,22 @@
     <t>地球葱</t>
   </si>
   <si>
+    <t>是兮兮</t>
+  </si>
+  <si>
+    <t>徐进阳</t>
+  </si>
+  <si>
     <t>加肥猫</t>
   </si>
   <si>
     <t>旋律</t>
   </si>
   <si>
+    <t>施健</t>
+  </si>
+  <si>
     <t>他们都叫我彭于晏</t>
-  </si>
-  <si>
-    <t>运维--张曾伟</t>
   </si>
   <si>
     <t>Mr.J</t>
@@ -487,10 +563,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -530,23 +606,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,45 +637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,6 +646,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,6 +681,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -637,9 +697,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,8 +712,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,8 +734,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,13 +783,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,13 +897,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,151 +957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,6 +1057,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1003,11 +1090,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,52 +1144,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,10 +1160,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,137 +1172,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,6 +1351,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,12 +1367,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,7 +1691,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1631,24 +1704,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1666,72 +1739,72 @@
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
+      <c r="A7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>5</v>
@@ -1739,176 +1812,175 @@
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
+      <c r="A11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>37</v>
+      <c r="A13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
+      <c r="A14" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4">
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" ht="19" customHeight="1" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="19" customHeight="1" spans="1:6">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4">
         <v>8</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E18" s="4">
         <v>9</v>
@@ -1917,11 +1989,11 @@
     <row r="19" ht="19" customHeight="1" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4">
         <v>10</v>
@@ -1930,11 +2002,11 @@
     <row r="20" ht="19" customHeight="1" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4">
         <v>11</v>
@@ -1943,11 +2015,11 @@
     <row r="21" ht="19" customHeight="1" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4">
         <v>12</v>
@@ -1956,67 +2028,67 @@
     <row r="22" ht="19" customHeight="1" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:4">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2121,7 @@
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2064,22 +2136,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2088,23 +2160,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="24.4" customHeight="1" spans="1:8">
@@ -2112,19 +2184,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="10"/>
@@ -2134,19 +2206,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="10"/>
@@ -2156,19 +2228,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="10"/>
@@ -2178,10 +2250,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2194,14 +2266,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2212,26 +2284,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2260,13 +2332,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
@@ -2274,19 +2346,30 @@
     <col min="4" max="4" width="17.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="17.4444444444444" customWidth="1"/>
+    <col min="10" max="11" width="17.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="18.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:8">
+    <row r="1" ht="30" customHeight="1" spans="1:14">
       <c r="A1" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13"/>
       <c r="G1" s="12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H1" s="13"/>
-    </row>
-    <row r="2" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="M1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" ht="18.4" customHeight="1" spans="1:14">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2299,347 +2382,549 @@
       <c r="H2" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="18.4" customHeight="1" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18.4" customHeight="1" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="18.4" customHeight="1" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A6" s="15" t="s">
-        <v>96</v>
+      <c r="J5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="18.4" customHeight="1" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H6" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" ht="18.4" customHeight="1" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>92</v>
+      <c r="J6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="18.4" customHeight="1" spans="1:14">
+      <c r="A7" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="18.4" customHeight="1" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="G8" s="15" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H8" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="18.4" customHeight="1" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H9" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="4">
+        <v>7</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="18.4" customHeight="1" spans="1:14">
       <c r="A10" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H10" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="4">
+        <v>8</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="18.4" customHeight="1" spans="1:14">
       <c r="A11" s="15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H11" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="4">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="18.4" customHeight="1" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H12" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="18.4" customHeight="1" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H13" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" ht="18.4" customHeight="1" spans="1:8">
+      <c r="J13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="4">
+        <v>11</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="18.4" customHeight="1" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="J14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="4">
+        <v>12</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="18.4" customHeight="1" spans="1:14">
+      <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="J15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="18.4" customHeight="1" spans="1:11">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="18.4" customHeight="1" spans="1:11">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" ht="18.4" customHeight="1" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" ht="18.4" customHeight="1" spans="1:4">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="18.4" customHeight="1" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" ht="18.4" customHeight="1" spans="2:2">
+        <v>124</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="18.4" customHeight="1" spans="2:11">
       <c r="B19" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" ht="18.4" customHeight="1" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" ht="18.4" customHeight="1" spans="1:11">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" ht="18.4" customHeight="1" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" ht="18.4" customHeight="1" spans="1:11">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" ht="18.4" customHeight="1" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="18.4" customHeight="1" spans="1:11">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="18.4" customHeight="1" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" ht="18.4" customHeight="1" spans="1:11">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" ht="18.4" customHeight="1" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" ht="18.4" customHeight="1" spans="1:11">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" ht="18.4" customHeight="1" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" ht="18.4" customHeight="1" spans="1:11">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" ht="18.4" customHeight="1" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" ht="18.4" customHeight="1" spans="1:11">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" ht="18.4" customHeight="1" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" ht="18.4" customHeight="1" spans="1:11">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2669,7 +2954,7 @@
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2685,25 +2970,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -2712,26 +2997,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E3" s="4">
         <v>350</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G3" s="4">
         <v>6.3</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:9">
@@ -2739,19 +3024,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E4" s="4">
         <v>400</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G4" s="4">
         <v>7.7</v>
@@ -2764,19 +3049,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4">
         <v>320</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G5" s="4">
         <v>8.8</v>
@@ -2789,19 +3074,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E6" s="4">
         <v>600</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -2814,25 +3099,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E7" s="4">
         <v>400</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G7" s="4">
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I7" s="10"/>
     </row>
@@ -2841,25 +3126,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E8" s="4">
         <v>400</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G8" s="4">
         <v>6.1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -2868,31 +3153,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E9" s="4">
         <v>520</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I9" s="10"/>
     </row>
     <row r="10" ht="44" customHeight="1" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
